--- a/DATA/Mesozoic pseudoscorpiones data.xlsx
+++ b/DATA/Mesozoic pseudoscorpiones data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BootCamp in class\Project-2\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\britt\Desktop\GIT _SUBMIT\Project-2\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E621155-A029-4456-96C5-C3B97EB58793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351969DA-3F91-47B7-B5DF-B012189632A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19920" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{62C98334-B8DE-4504-A4BC-6B0F5A016A6A}"/>
+    <workbookView xWindow="-23136" yWindow="-4908" windowWidth="23232" windowHeight="12696" xr2:uid="{62C98334-B8DE-4504-A4BC-6B0F5A016A6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,28 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
-  <si>
-    <t>Chelifer fossilis Weyenbergh, 1874</t>
-  </si>
-  <si>
-    <t>Pseudoscorpiones</t>
-  </si>
-  <si>
-    <t>Chelifer</t>
-  </si>
-  <si>
-    <t>48°53'N</t>
-  </si>
-  <si>
-    <t>11°00'E</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Suborder Author</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
   <si>
     <t>Suborder Publish Year</t>
   </si>
@@ -72,36 +50,9 @@
     <t>Family</t>
   </si>
   <si>
-    <t>Subfamily</t>
-  </si>
-  <si>
-    <t>Subfamily Author</t>
-  </si>
-  <si>
-    <t>Subfamily Publish Year</t>
-  </si>
-  <si>
     <t>Era</t>
   </si>
   <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Scudder, 1891: 99 ("probably not an arachnid")</t>
-  </si>
-  <si>
-    <t>Weyenbergh, 1874: 89 (nomen nudum)</t>
-  </si>
-  <si>
-    <t>Petrunkevitch, 1953: 45 (probably a crustacean).</t>
-  </si>
-  <si>
-    <t>Chelifer fossilis</t>
-  </si>
-  <si>
     <t>Mesozoic</t>
   </si>
   <si>
@@ -114,30 +65,12 @@
     <t>96°35'E</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Hukawng (as Hukong) Valley, Kachin, Myanmar (amber fossil, possibly Upper Cretaceous).</t>
-  </si>
-  <si>
-    <t>Suborder</t>
-  </si>
-  <si>
-    <t>Iocheirata</t>
-  </si>
-  <si>
     <t>Cheiridioidea</t>
   </si>
   <si>
     <t>Cheiridiidae</t>
   </si>
   <si>
-    <t>Cheiridiinae</t>
-  </si>
-  <si>
-    <t>Harvey</t>
-  </si>
-  <si>
     <t>Hansen</t>
   </si>
   <si>
@@ -159,33 +92,12 @@
     <t>Cockerell</t>
   </si>
   <si>
-    <t>Geoffroy</t>
-  </si>
-  <si>
-    <t>Solnhofen, Bayern, Germany (Jurassic?).</t>
-  </si>
-  <si>
     <t>45°56'N</t>
   </si>
   <si>
     <t>0°41'W</t>
   </si>
   <si>
-    <t>Archingeay-Les Nouillers, Charente-Maritime, Poitou-Charentes, France (Amber) (Lower Cretaceous).</t>
-  </si>
-  <si>
-    <t>Order Author</t>
-  </si>
-  <si>
-    <t>Order Author Publish Date</t>
-  </si>
-  <si>
-    <t>de Geer</t>
-  </si>
-  <si>
-    <t>Heurtaultia rossiorum Judson, 2009</t>
-  </si>
-  <si>
     <t>Cheliferoidea</t>
   </si>
   <si>
@@ -201,12 +113,6 @@
     <t>Judson</t>
   </si>
   <si>
-    <t>Electrobisium acutum Cockerell, 1917</t>
-  </si>
-  <si>
-    <t>Amblyolpium burmiticum (Cockerell, 1920)</t>
-  </si>
-  <si>
     <t>Garypoidea</t>
   </si>
   <si>
@@ -220,6 +126,171 @@
   </si>
   <si>
     <t>Amblyolpium</t>
+  </si>
+  <si>
+    <t>acutum</t>
+  </si>
+  <si>
+    <t>rossiorum</t>
+  </si>
+  <si>
+    <t>burmiticum</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>TypeLocality</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Cretaceous</t>
+  </si>
+  <si>
+    <t>Epoch</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Abs_age</t>
+  </si>
+  <si>
+    <t>Amber</t>
+  </si>
+  <si>
+    <t>Archingeay</t>
+  </si>
+  <si>
+    <t>Burmese</t>
+  </si>
+  <si>
+    <t>Protofealla</t>
+  </si>
+  <si>
+    <t>peetersae</t>
+  </si>
+  <si>
+    <t>Henderickx and Boone</t>
+  </si>
+  <si>
+    <t>Hukawng (as Hukong) Valley, Kachin, Myanmar</t>
+  </si>
+  <si>
+    <t>Late Cretaceous</t>
+  </si>
+  <si>
+    <t>Early Cretaceous</t>
+  </si>
+  <si>
+    <t>Feaellidae</t>
+  </si>
+  <si>
+    <t>indet.</t>
+  </si>
+  <si>
+    <t>Raritan</t>
+  </si>
+  <si>
+    <t>Canadian</t>
+  </si>
+  <si>
+    <t>Chernetidae</t>
+  </si>
+  <si>
+    <t>Schawaller</t>
+  </si>
+  <si>
+    <t>Lebanese</t>
+  </si>
+  <si>
+    <t>Whalley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grimaldi et al. </t>
+  </si>
+  <si>
+    <t>Alava</t>
+  </si>
+  <si>
+    <t>Delclos</t>
+  </si>
+  <si>
+    <t>Albian</t>
+  </si>
+  <si>
+    <t>Cenomanian</t>
+  </si>
+  <si>
+    <t>Turonian</t>
+  </si>
+  <si>
+    <t>Campanian</t>
+  </si>
+  <si>
+    <t>Grossman's Pit, Sayreville, New Jersey, USA</t>
+  </si>
+  <si>
+    <t>Archingeay-Les Nouillers, Charente-Maritime, Poitou-Charentes, France</t>
+  </si>
+  <si>
+    <t>Barremian</t>
+  </si>
+  <si>
+    <t>74°21'W</t>
+  </si>
+  <si>
+    <t>40°27'N</t>
+  </si>
+  <si>
+    <t>Grassy Lake, Southern Alberta, Canada</t>
+  </si>
+  <si>
+    <t>Procheiridium</t>
+  </si>
+  <si>
+    <t>judsoni </t>
+  </si>
+  <si>
+    <t>Porta et al.</t>
+  </si>
+  <si>
+    <t>49°49'N</t>
+  </si>
+  <si>
+    <t>111°41'W</t>
+  </si>
+  <si>
+    <t>42°254'N</t>
+  </si>
+  <si>
+    <t>2°41'W</t>
+  </si>
+  <si>
+    <t>33°8'N</t>
+  </si>
+  <si>
+    <t>35°35'W</t>
+  </si>
+  <si>
+    <t>Capilduy, Alava, Spain</t>
+  </si>
+  <si>
+    <t>Ain Dara, Caza Aley, Lebanese amber</t>
   </si>
 </sst>
 </file>
@@ -243,16 +314,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF444444"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF494949"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -598,359 +669,658 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A609E2-1CEE-46A8-9788-8933E11F2F49}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="17.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="20" width="17.42578125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="44.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="44" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="63.5703125" style="1" customWidth="1"/>
+    <col min="15" max="24" width="93.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="52" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:34" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="AH1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="1">
+        <v>99</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1917</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1992</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1894</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>1894</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2009</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1992</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>1826</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>1827</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="1">
+        <v>99</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1920</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1992</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="AA4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>1879</v>
+      </c>
+      <c r="AC4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="AD4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>1888</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1778</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="1">
-        <v>1762</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1778</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1992</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1894</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1894</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="1">
-        <v>1894</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" s="1">
-        <v>1917</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1778</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1992</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1826</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1827</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V4" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1">
+        <v>99</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="W4" s="1">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="1">
-        <v>1778</v>
+      <c r="H5" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1992</v>
+        <v>50</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2016</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2009</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1">
+        <v>90</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2002</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="1">
+        <v>72</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1991</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1879</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="N8" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="1">
+        <v>125</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1980</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="1">
-        <v>1888</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="W5" s="1">
-        <v>1898</v>
+      <c r="N9" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="1">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2007</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="1">
+        <v>99</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2020</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
